--- a/planung.xlsx
+++ b/planung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\LF9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{004BDADD-B914-4C59-AA2B-3FB11A5EDDF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3671AA3-610D-4542-A113-6ACDD8543690}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{79C2C447-1475-4FA3-9FA3-BA35DE07D346}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Einrichtung Test-Website</t>
   </si>
   <si>
-    <t>6, 7, 8, 1, 5</t>
-  </si>
-  <si>
     <t>Nachweis der Nutzbarkeit der Website, debugging</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Erstellung Ablaufdokumentation</t>
   </si>
   <si>
-    <t>10, 11, 12</t>
-  </si>
-  <si>
     <t>Soll-Ist-Vergleich</t>
   </si>
   <si>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>Optimierungsvorschläge</t>
+  </si>
+  <si>
+    <t>6;7;8;1;5</t>
+  </si>
+  <si>
+    <t>10;11;12</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -483,6 +483,9 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -494,6 +497,9 @@
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -505,6 +511,9 @@
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -516,6 +525,9 @@
       <c r="C6">
         <v>5</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="E6">
         <v>1</v>
       </c>
@@ -527,6 +539,9 @@
       <c r="C7">
         <v>6</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="E7">
         <v>2</v>
       </c>
@@ -538,6 +553,9 @@
       <c r="C8">
         <v>7</v>
       </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -549,6 +567,9 @@
       <c r="C9">
         <v>8</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="E9">
         <v>4</v>
       </c>
@@ -560,77 +581,99 @@
       <c r="C10">
         <v>9</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="E11">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="E12">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="E16">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>